--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CoEDevelopmentBotVPe\Documents\Configuration\Dispatcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev2Mercury\Documents\UiPath\InPwr.Finance.AccountsPayable.Common.Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AD1620-E62D-4156-AABD-70C4AA0EBA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97290000-C429-4D4E-8B8D-548961B9D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -286,9 +286,6 @@
     <t>AP_SharedDrive_UNC</t>
   </si>
   <si>
-    <t>\\inpwrautomation.file.core.windows.net\automation\</t>
-  </si>
-  <si>
     <t>Actual share drive path and IP address are not allowed.</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>Business Exception Occurred</t>
+  </si>
+  <si>
+    <t>\\automationsvr\automation</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,7 +474,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y970"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -845,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>60</v>
@@ -856,7 +855,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>67</v>
@@ -882,7 +881,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>59</v>
@@ -937,10 +936,10 @@
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1">
@@ -955,29 +954,29 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -985,10 +984,10 @@
         <v>84</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1018,10 +1017,10 @@
         <v>76</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1029,7 +1028,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>66</v>
@@ -1043,7 +1042,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -3227,7 +3226,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -3241,10 +3240,10 @@
         <v>82</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -3255,7 +3254,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>59</v>
@@ -4243,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A045ED-89B2-46F5-87BB-9D73B35EE197}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4281,31 +4280,31 @@
       <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>106</v>
+      <c r="C2" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="240">
+      <c r="A3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="240">
-      <c r="A3" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="E3" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4360,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>50</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev2Mercury\Documents\UiPath\InPwr.Finance.AccountsPayable.Common.Dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev5pegasus\Documents\Configuration\Dispatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97290000-C429-4D4E-8B8D-548961B9D091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4AF2A5-66D6-4510-9867-8403D937F047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>EmailTo</t>
-  </si>
-  <si>
-    <t>EmailBcc</t>
-  </si>
-  <si>
-    <t>EmailCc</t>
   </si>
   <si>
     <t>EmailSubject</t>
@@ -332,9 +326,6 @@
   </si>
   <si>
     <t>Initial Sheet name for Runtime Staging log excel file.</t>
-  </si>
-  <si>
-    <t>mercury@inpwrinc.com</t>
   </si>
   <si>
     <t>AP_DispatcherQueue_Folder</t>
@@ -365,6 +356,15 @@
   </si>
   <si>
     <t>\\automationsvr\automation</t>
+  </si>
+  <si>
+    <t>Dear All,
+We wanted to keep you notified that Business Exception occured while processing the bot.
+{0}
+If you have any further questions or concerns in the meantime, please don’t hesitate to contact us.
+Thank you for your understanding.
+Best regards,
+Support Team</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,9 +467,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -794,16 +791,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="122" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="25" width="8.7109375" customWidth="1"/>
+    <col min="4" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" customHeight="1">
@@ -839,52 +836,52 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="30">
+    <row r="2" spans="1:25" ht="29">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="14.5">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" ht="14.5">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" ht="14.5">
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" ht="14.5">
       <c r="A7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>92</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1">
@@ -892,54 +889,54 @@
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1">
@@ -948,101 +945,101 @@
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="12" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="12">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="12">
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -2007,16 +2004,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2053,7 +2050,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2178,7 +2175,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -3174,12 +3171,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="43.1796875" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3220,44 +3217,44 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4242,23 +4239,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A045ED-89B2-46F5-87BB-9D73B35EE197}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="4" width="26.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.5">
       <c r="A1" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>39</v>
@@ -4267,44 +4264,44 @@
         <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="232">
+      <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="240">
-      <c r="A2" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="203">
+      <c r="A3" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="240">
-      <c r="A3" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4315,58 +4312,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C6B43-6EA4-4DD0-939E-D4A6AD374EA2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="3" width="26.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:4" ht="18.5">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="150">
+    </row>
+    <row r="2" spans="1:4" ht="145">
       <c r="A2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev5pegasus\Documents\Configuration\Dispatcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://appriver3651001021-my.sharepoint.com/personal/mercury_inpwrinc_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4AF2A5-66D6-4510-9867-8403D937F047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3D9290DC-B053-4685-91BD-13561B6C8BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B23533-871C-4F7C-A510-7CF0E3A0D401}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -307,9 +307,6 @@
     <t>&lt;DriveLetter&gt;:\RPA</t>
   </si>
   <si>
-    <t>&lt;DriveLetter&gt;:\RPA\APInvoice\&lt;TenantName&gt;\PDF\&lt;VendorType&gt;\&lt;CurrentDate&gt;\</t>
-  </si>
-  <si>
     <t>APInvoice.Dispatcher</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
   </si>
   <si>
     <t>AP_DispatcherQueue_Folder</t>
-  </si>
-  <si>
-    <t>&lt;DriveLetter&gt;:\RPA\APInvoice\&lt;TenantName&gt;\Log\&lt;VendorType&gt;\&lt;CurrentDate&gt;_SuccessLog.xlsx</t>
   </si>
   <si>
     <t>Dear All,
@@ -355,9 +349,6 @@
     <t>Business Exception Occurred</t>
   </si>
   <si>
-    <t>\\automationsvr\automation</t>
-  </si>
-  <si>
     <t>Dear All,
 We wanted to keep you notified that Business Exception occured while processing the bot.
 {0}
@@ -365,6 +356,36 @@
 Thank you for your understanding.
 Best regards,
 Support Team</t>
+  </si>
+  <si>
+    <t>AP_Project_LocalFolder</t>
+  </si>
+  <si>
+    <t>C:</t>
+  </si>
+  <si>
+    <t>AP_O365_MailFolder_Success</t>
+  </si>
+  <si>
+    <t>Inbox\AP INVOICE ENTRY - CoE\Successful</t>
+  </si>
+  <si>
+    <t>\\automationsvr\automation</t>
+  </si>
+  <si>
+    <t>&lt;DriveLetter&gt;:\RPA\APInvoice\&lt;TenantName&gt;\Log\&lt;VendorType&gt;\&lt;CurrentDate&gt;_SuccessLog.xlsx</t>
+  </si>
+  <si>
+    <t>&lt;DriveLetter&gt;:\RPA\APInvoice\&lt;TenantName&gt;\PDF\&lt;VendorType&gt;\&lt;CurrentDate&gt;\</t>
+  </si>
+  <si>
+    <t>AP_StatusReportPath_AssetFolder</t>
+  </si>
+  <si>
+    <t>AP_StatusReportPath_AssetName</t>
+  </si>
+  <si>
+    <t>AP_StatusReportsPath</t>
   </si>
 </sst>
 </file>
@@ -431,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,6 +494,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,18 +813,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y970"/>
+  <dimension ref="A1:Y971"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="122" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="25" width="8.7265625" customWidth="1"/>
+    <col min="4" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" customHeight="1">
@@ -836,30 +860,30 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="29">
+    <row r="2" spans="1:25" ht="30">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.5">
+    <row r="3" spans="1:25">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="14.5">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="14.5">
+    <row r="5" spans="1:25">
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
@@ -873,7 +897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.5">
+    <row r="7" spans="1:25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -921,56 +945,54 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="12" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>86</v>
@@ -978,80 +1000,109 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="12">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B21" s="12">
         <v>30</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1993,6 +2044,7 @@
     <row r="968" ht="14.25" customHeight="1"/>
     <row r="969" ht="14.25" customHeight="1"/>
     <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2008,12 +2060,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2050,7 +2102,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2175,7 +2227,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -3171,12 +3223,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3223,7 +3275,7 @@
         <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -3240,7 +3292,7 @@
         <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -3251,7 +3303,7 @@
         <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>57</v>
@@ -4239,21 +4291,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A045ED-89B2-46F5-87BB-9D73B35EE197}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="8"/>
+    <col min="4" max="4" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -4270,7 +4322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="232">
+    <row r="2" spans="1:5" ht="240">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -4278,30 +4330,30 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="210">
+      <c r="A3" s="15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="203">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4318,16 +4370,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="8"/>
+    <col min="3" max="3" width="26.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -4341,7 +4393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="145">
+    <row r="2" spans="1:4" ht="150">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
